--- a/documentation/LL_tabulka_ver02.xlsx
+++ b/documentation/LL_tabulka_ver02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3efae75f706e1dc0/_EVA/FIT/2021-LS/IVS/project02/addingToGithub/IFJ21/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{56B76993-0588-42DF-B5C3-FFD7A7536E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EDF5CBB-F61B-4A09-8A26-DB3880B3BD66}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{56B76993-0588-42DF-B5C3-FFD7A7536E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68CAD8C-E0F2-4564-813A-B25A8617909B}"/>
   <bookViews>
-    <workbookView xWindow="-15330" yWindow="8220" windowWidth="28800" windowHeight="15465" activeTab="2" xr2:uid="{E48FA866-44D8-4774-9133-691A95F9CE5F}"/>
+    <workbookView xWindow="-45735" yWindow="11340" windowWidth="19200" windowHeight="10305" activeTab="2" xr2:uid="{E48FA866-44D8-4774-9133-691A95F9CE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -667,198 +667,141 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="B2:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7265625" style="3"/>
-    <col min="29" max="29" width="16.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.6328125" customWidth="1"/>
-    <col min="31" max="31" width="47.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7265625" style="3"/>
+    <col min="30" max="30" width="16.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.6328125" customWidth="1"/>
+    <col min="32" max="32" width="47.36328125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="2" spans="2:34" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9">
-        <v>5</v>
-      </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9">
-        <v>3</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9">
-        <v>36</v>
-      </c>
-      <c r="D3" s="9">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9">
-        <v>36</v>
-      </c>
-      <c r="F3" s="9">
-        <v>36</v>
-      </c>
-      <c r="G3" s="9">
-        <v>36</v>
-      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -869,32 +812,52 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="9">
+        <v>5</v>
+      </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
+      <c r="W3" s="9">
+        <v>3</v>
+      </c>
       <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="9">
+        <v>2</v>
+      </c>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="8"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="9">
-        <v>38</v>
+      <c r="AA3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="9">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9">
+        <v>36</v>
+      </c>
       <c r="H4" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -914,23 +877,25 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="8"/>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="8"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9">
+        <v>38</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9">
-        <v>8</v>
-      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9">
+        <v>37</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -948,30 +913,22 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="8"/>
-      <c r="AD5" s="2"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="D6" s="9">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E6" s="9">
-        <v>37.4</v>
-      </c>
-      <c r="F6" s="9">
-        <v>37.5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>37.1</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="8"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>8</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -990,24 +947,30 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="8"/>
-      <c r="AD6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9">
-        <v>9</v>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="8"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="9">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E7" s="9">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F7" s="9">
+        <v>37.4</v>
+      </c>
       <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9"/>
+        <v>37.5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>37.1</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1026,22 +989,24 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="8"/>
-      <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="8"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>10</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1060,32 +1025,26 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="8"/>
-      <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="8"/>
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>17</v>
-      </c>
-      <c r="J9" s="9">
-        <v>19</v>
-      </c>
-      <c r="K9" s="9">
-        <v>20</v>
-      </c>
-      <c r="L9" s="9">
-        <v>21</v>
-      </c>
+      <c r="H9" s="9">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1100,45 +1059,39 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="8"/>
-      <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="8"/>
+      <c r="AE9" s="2"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9">
-        <v>23</v>
-      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="J10" s="9">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9">
+        <v>19</v>
+      </c>
+      <c r="L10" s="9">
+        <v>20</v>
+      </c>
       <c r="M10" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="9">
-        <v>23</v>
-      </c>
-      <c r="P10" s="9">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>23</v>
-      </c>
-      <c r="R10" s="9">
-        <v>23</v>
-      </c>
-      <c r="S10" s="9">
-        <v>23</v>
-      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -1146,85 +1099,87 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="8"/>
-      <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="8"/>
+      <c r="AE10" s="2"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
-        <v>24</v>
-      </c>
-      <c r="J11" s="9">
-        <v>24</v>
-      </c>
-      <c r="K11" s="9">
-        <v>24</v>
-      </c>
-      <c r="L11" s="9">
-        <v>24</v>
-      </c>
+      <c r="H11" s="9">
+        <v>23</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="N11" s="9">
+        <v>22</v>
+      </c>
+      <c r="O11" s="9">
+        <v>23</v>
+      </c>
+      <c r="P11" s="9">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>23</v>
+      </c>
+      <c r="R11" s="9">
+        <v>23</v>
+      </c>
+      <c r="S11" s="9">
+        <v>23</v>
+      </c>
+      <c r="T11" s="9">
+        <v>23</v>
+      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="8"/>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="8"/>
+      <c r="AE11" s="2"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9">
-        <v>26</v>
-      </c>
-      <c r="H12" s="9">
-        <v>25</v>
-      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="J12" s="9">
+        <v>24</v>
+      </c>
+      <c r="K12" s="9">
+        <v>24</v>
+      </c>
+      <c r="L12" s="9">
+        <v>24</v>
+      </c>
+      <c r="M12" s="9">
+        <v>24</v>
+      </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="9">
-        <v>26</v>
-      </c>
-      <c r="P12" s="9">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>26</v>
-      </c>
-      <c r="R12" s="9">
-        <v>26</v>
-      </c>
-      <c r="S12" s="9">
-        <v>26</v>
-      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -1232,68 +1187,81 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="8"/>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="8"/>
+      <c r="AE12" s="2"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9">
+        <v>26</v>
+      </c>
       <c r="I13" s="9">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9">
-        <v>27</v>
-      </c>
-      <c r="K13" s="9">
-        <v>27</v>
-      </c>
-      <c r="L13" s="9">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="O13" s="9">
+        <v>26</v>
+      </c>
+      <c r="P13" s="9">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>26</v>
+      </c>
+      <c r="R13" s="9">
+        <v>26</v>
+      </c>
+      <c r="S13" s="9">
+        <v>26</v>
+      </c>
+      <c r="T13" s="9">
+        <v>26</v>
+      </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9">
-        <v>14</v>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="8"/>
+      <c r="AE13" s="2"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <v>15</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="J14" s="9">
+        <v>27</v>
+      </c>
+      <c r="K14" s="9">
+        <v>27</v>
+      </c>
+      <c r="L14" s="9">
+        <v>27</v>
+      </c>
+      <c r="M14" s="9">
+        <v>27</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1307,141 +1275,137 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="8"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <v>15</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="9">
-        <v>28</v>
-      </c>
+      <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="9">
-        <v>32</v>
-      </c>
+      <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="9">
-        <v>32</v>
-      </c>
+      <c r="V15" s="9"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="9">
-        <v>32</v>
-      </c>
+      <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="9">
-        <v>32</v>
-      </c>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="8"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <v>29</v>
-      </c>
-      <c r="J16" s="9">
-        <v>29</v>
-      </c>
-      <c r="K16" s="9">
-        <v>29</v>
-      </c>
-      <c r="L16" s="9">
-        <v>29</v>
-      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="9">
+        <v>28</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="R16" s="9">
+        <v>32</v>
+      </c>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="W16" s="9">
+        <v>32</v>
+      </c>
       <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="9">
+        <v>32</v>
+      </c>
       <c r="Z16" s="9"/>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="9"/>
+      <c r="AA16" s="9">
+        <v>32</v>
+      </c>
+      <c r="AB16" s="8"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <v>30</v>
-      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="J17" s="9">
+        <v>29</v>
+      </c>
+      <c r="K17" s="9">
+        <v>29</v>
+      </c>
+      <c r="L17" s="9">
+        <v>29</v>
+      </c>
+      <c r="M17" s="9">
+        <v>29</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="9">
-        <v>31</v>
-      </c>
+      <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="9">
-        <v>31</v>
-      </c>
+      <c r="V17" s="9"/>
       <c r="W17" s="9"/>
-      <c r="X17" s="9">
-        <v>31</v>
-      </c>
+      <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="9">
-        <v>31</v>
-      </c>
-      <c r="AA17" s="8"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9">
+        <v>30</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1449,32 +1413,36 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="9">
-        <v>33</v>
-      </c>
-      <c r="R18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9">
+        <v>31</v>
+      </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="W18" s="9">
+        <v>31</v>
+      </c>
       <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
+      <c r="Y18" s="9">
+        <v>31</v>
+      </c>
       <c r="Z18" s="9"/>
-      <c r="AA18" s="8"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="9"/>
+      <c r="AA18" s="9">
+        <v>31</v>
+      </c>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9">
-        <v>43</v>
-      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,21 +1450,13 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="9">
-        <v>41</v>
-      </c>
-      <c r="P19" s="9">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>42</v>
-      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="9">
-        <v>44</v>
-      </c>
-      <c r="S19" s="9">
-        <v>45</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -1504,53 +1464,65 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="8"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9">
-        <v>46</v>
-      </c>
-      <c r="H20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>43</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="O20" s="9">
+        <v>39</v>
+      </c>
+      <c r="P20" s="9">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>40</v>
+      </c>
+      <c r="R20" s="9">
+        <v>42</v>
+      </c>
+      <c r="S20" s="9">
+        <v>44</v>
+      </c>
+      <c r="T20" s="9">
+        <v>45</v>
+      </c>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
-      <c r="AA20" s="8"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,52 +1540,50 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="9">
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="8"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9">
+        <v>47</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9">
         <v>48</v>
       </c>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="8"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="8"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14">
-        <v>49</v>
-      </c>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14">
-        <v>49</v>
-      </c>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="13"/>
-    </row>
-    <row r="23" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1629,159 +1599,163 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="R23" s="14">
+        <v>49</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="14">
-        <v>51</v>
-      </c>
-      <c r="X23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14">
+        <v>49</v>
+      </c>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="16"/>
-      <c r="AE23" s="18"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="13"/>
+    </row>
+    <row r="24" spans="2:32" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14">
+        <v>51</v>
+      </c>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="16"/>
+      <c r="AF24" s="18"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9">
-        <v>53</v>
-      </c>
-      <c r="H24" s="9">
-        <v>52</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9">
-        <v>53</v>
-      </c>
-      <c r="P24" s="9">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>53</v>
-      </c>
-      <c r="R24" s="9">
-        <v>53</v>
-      </c>
-      <c r="S24" s="9">
-        <v>53</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="8"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9">
-        <v>58</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>53</v>
+      </c>
+      <c r="I25" s="9">
+        <v>52</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P25" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R25" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S25" s="9">
-        <v>58</v>
-      </c>
-      <c r="T25" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="T25" s="9">
+        <v>53</v>
+      </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="9">
-        <v>58</v>
-      </c>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9">
-        <v>57</v>
-      </c>
+      <c r="W25" s="9"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
-      <c r="AA25" s="8"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="8"/>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9">
+        <v>58</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="9">
+        <v>58</v>
+      </c>
       <c r="P26" s="9">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>58</v>
+      </c>
+      <c r="R26" s="9">
+        <v>58</v>
+      </c>
+      <c r="S26" s="9">
+        <v>58</v>
+      </c>
+      <c r="T26" s="9">
+        <v>58</v>
+      </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
+      <c r="X26" s="9">
+        <v>58</v>
+      </c>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="9"/>
+      <c r="Z26" s="9">
+        <v>57</v>
+      </c>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="8"/>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9">
-        <v>60</v>
-      </c>
+      <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1789,70 +1763,74 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="9">
-        <v>61</v>
-      </c>
-      <c r="P27" s="9">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>60</v>
-      </c>
-      <c r="R27" s="9">
-        <v>61</v>
-      </c>
-      <c r="S27" s="9">
-        <v>61</v>
-      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9">
+        <v>59</v>
+      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="9">
-        <v>60</v>
-      </c>
+      <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="8"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="8"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B28" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="12">
+        <v>60</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9">
-        <v>62</v>
-      </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
+      <c r="O28" s="9">
+        <v>61</v>
+      </c>
+      <c r="P28" s="9">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>61</v>
+      </c>
+      <c r="R28" s="12">
+        <v>60</v>
+      </c>
+      <c r="S28" s="9">
+        <v>61</v>
+      </c>
+      <c r="T28" s="9">
+        <v>61</v>
+      </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
+      <c r="X28" s="9">
+        <v>60</v>
+      </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
-      <c r="AA28" s="8"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="8"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1870,7 +1848,7 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -1879,13 +1857,13 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
-      <c r="AA29" s="8"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="8"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1897,32 +1875,28 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="9">
-        <v>66</v>
-      </c>
+      <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9">
-        <v>64</v>
-      </c>
-      <c r="U30" s="9">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
-      <c r="AA30" s="8"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="8"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1934,37 +1908,37 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="9">
-        <v>67</v>
-      </c>
-      <c r="O31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9">
+        <v>66</v>
+      </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
+      <c r="U31" s="9">
+        <v>64</v>
+      </c>
+      <c r="V31" s="9">
+        <v>65</v>
+      </c>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
-      <c r="AA31" s="8"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="9">
-        <v>6</v>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="8"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9">
-        <v>7</v>
-      </c>
+      <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1972,7 +1946,9 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="O32" s="9">
+        <v>67</v>
+      </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
@@ -1984,33 +1960,27 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
-      <c r="AA32" s="8"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="11">
-        <v>13</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9">
-        <v>12</v>
-      </c>
-      <c r="J33" s="9">
-        <v>12</v>
-      </c>
-      <c r="K33" s="9">
-        <v>12</v>
-      </c>
-      <c r="L33" s="9">
-        <v>12</v>
-      </c>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9">
+        <v>7</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -2025,38 +1995,34 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
-      <c r="AA33" s="8"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="11">
-        <v>34</v>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C34" s="11">
-        <v>35</v>
-      </c>
-      <c r="D34" s="11">
-        <v>35</v>
-      </c>
-      <c r="E34" s="11">
-        <v>35</v>
-      </c>
-      <c r="F34" s="11">
-        <v>35</v>
-      </c>
-      <c r="G34" s="11">
-        <v>35</v>
-      </c>
-      <c r="H34" s="9">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="J34" s="9">
+        <v>12</v>
+      </c>
+      <c r="K34" s="9">
+        <v>12</v>
+      </c>
+      <c r="L34" s="9">
+        <v>12</v>
+      </c>
+      <c r="M34" s="9">
+        <v>12</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
@@ -2070,20 +2036,34 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
-      <c r="AA34" s="8"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="8"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="11">
+        <v>34</v>
+      </c>
+      <c r="D35" s="11">
+        <v>35</v>
+      </c>
+      <c r="E35" s="11">
+        <v>35</v>
+      </c>
+      <c r="F35" s="11">
+        <v>35</v>
+      </c>
+      <c r="G35" s="11">
+        <v>35</v>
+      </c>
+      <c r="H35" s="11">
+        <v>35</v>
+      </c>
+      <c r="I35" s="9">
+        <v>35</v>
+      </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2097,16 +2077,48 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="9">
-        <v>56</v>
-      </c>
+      <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
-      <c r="AA35" s="8"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="8"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9">
+        <v>56</v>
+      </c>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/LL_tabulka_ver02.xlsx
+++ b/documentation/LL_tabulka_ver02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3efae75f706e1dc0/_EVA/FIT/2021-LS/IVS/project02/addingToGithub/IFJ21/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{56B76993-0588-42DF-B5C3-FFD7A7536E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68CAD8C-E0F2-4564-813A-B25A8617909B}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{56B76993-0588-42DF-B5C3-FFD7A7536E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03AAA233-FA05-487A-99A6-F2FF2E4FA8E7}"/>
   <bookViews>
-    <workbookView xWindow="-45735" yWindow="11340" windowWidth="19200" windowHeight="10305" activeTab="2" xr2:uid="{E48FA866-44D8-4774-9133-691A95F9CE5F}"/>
+    <workbookView xWindow="-44715" yWindow="12360" windowWidth="19200" windowHeight="10305" activeTab="2" xr2:uid="{E48FA866-44D8-4774-9133-691A95F9CE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -235,18 +235,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -276,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,9 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,8 +660,8 @@
   </sheetPr>
   <dimension ref="B2:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,75 +1572,75 @@
       <c r="AB22" s="8"/>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13">
         <v>49</v>
       </c>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14">
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13">
         <v>49</v>
       </c>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="13"/>
-    </row>
-    <row r="24" spans="2:32" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="12"/>
+    </row>
+    <row r="24" spans="2:32" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13">
         <v>51</v>
       </c>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="16"/>
-      <c r="AF24" s="18"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="15"/>
+      <c r="AF24" s="17"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
@@ -1692,7 +1683,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="14"/>
+      <c r="X25" s="13"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -1789,7 +1780,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="12">
+      <c r="H28" s="13">
         <v>60</v>
       </c>
       <c r="I28" s="9"/>
@@ -1798,24 +1789,14 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="9">
-        <v>61</v>
-      </c>
-      <c r="P28" s="9">
-        <v>61</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>61</v>
-      </c>
-      <c r="R28" s="12">
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="13">
         <v>60</v>
       </c>
-      <c r="S28" s="9">
-        <v>61</v>
-      </c>
-      <c r="T28" s="9">
-        <v>61</v>
-      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
